--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -97,18 +97,18 @@
     <t>positive</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -124,10 +124,10 @@
     <t>safe</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>heroes</t>
@@ -1165,25 +1165,25 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6565217391304348</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L16">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1191,25 +1191,25 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6538461538461539</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N17">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O17">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1217,25 +1217,25 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6521739130434783</v>
+        <v>0.64</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1243,25 +1243,25 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.64</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="N19">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1399,25 +1399,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5579268292682927</v>
+        <v>0.546875</v>
       </c>
       <c r="L25">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>145</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1425,25 +1425,25 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.546875</v>
+        <v>0.538235294117647</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="10:17">
